--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0cf7a109-a037-492e-9fee-4b588b6e219c}</x14:id>
+          <x14:id>{d93cbe18-200b-4d47-80c5-cb2c911c7530}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0cf7a109-a037-492e-9fee-4b588b6e219c}">
+          <x14:cfRule type="dataBar" id="{d93cbe18-200b-4d47-80c5-cb2c911c7530}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2de8ab59-7976-40e4-8dc9-5ff036098076}</x14:id>
+          <x14:id>{4a4a7953-20a3-4718-a1ce-a4d8fb63b33e}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2de8ab59-7976-40e4-8dc9-5ff036098076}">
+          <x14:cfRule type="dataBar" id="{4a4a7953-20a3-4718-a1ce-a4d8fb63b33e}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -370,22 +370,22 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:1">
-      <x:c r="A1" s="0" t="n">
+      <x:c r="A1" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
-      <x:c r="A2" s="0" t="n">
+      <x:c r="A2" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
-      <x:c r="A4" s="0" t="n">
+      <x:c r="A4" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d93cbe18-200b-4d47-80c5-cb2c911c7530}</x14:id>
+          <x14:id>{03b9cbb7-aa24-4b4a-9259-410e0ad5897e}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d93cbe18-200b-4d47-80c5-cb2c911c7530}">
+          <x14:cfRule type="dataBar" id="{03b9cbb7-aa24-4b4a-9259-410e0ad5897e}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,7 +359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{03b9cbb7-aa24-4b4a-9259-410e0ad5897e}</x14:id>
+          <x14:id>{6e531756-c1e8-49bd-91d9-e22c88ae2ca9}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{03b9cbb7-aa24-4b4a-9259-410e0ad5897e}">
+          <x14:cfRule type="dataBar" id="{6e531756-c1e8-49bd-91d9-e22c88ae2ca9}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/ConditionalFormatting/CFDataBar.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -399,7 +399,7 @@
       </x:dataBar>
       <x:extLst>
         <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6e531756-c1e8-49bd-91d9-e22c88ae2ca9}</x14:id>
+          <x14:id>{440ec55b-d27a-4d05-8949-0494753229d3}</x14:id>
         </x:ext>
       </x:extLst>
     </x:cfRule>
@@ -413,7 +413,7 @@
     <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6e531756-c1e8-49bd-91d9-e22c88ae2ca9}">
+          <x14:cfRule type="dataBar" id="{440ec55b-d27a-4d05-8949-0494753229d3}">
             <x14:dataBar minLength="0" maxLength="100" showValue="0" gradient="1">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
